--- a/projectplan/Capstone_A_Timeline.xlsx
+++ b/projectplan/Capstone_A_Timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WIDHALMNASII\HomeFolder\paul\SMU\CLASSES\2017-08-27 Capstone A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbaldree/Google Drive/smu/capstone/capstone/projectplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" xr2:uid="{8B2CB74C-F2C7-42D8-9F58-B96FD1A0F23C}"/>
+    <workbookView xWindow="18940" yWindow="440" windowWidth="19060" windowHeight="20380"/>
   </bookViews>
   <sheets>
     <sheet name="Capstone - Detail" sheetId="7" r:id="rId1"/>
@@ -20,10 +20,16 @@
     <definedName name="grade3" localSheetId="0">'Capstone - Detail'!#REF!</definedName>
     <definedName name="grade3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -171,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,16 +309,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,7 +418,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5D985896-1680-45A5-A383-E078D17DDAB6}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -724,23 +730,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2671B-E0E4-446E-81A9-69D6E6200956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -763,7 +769,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42978</v>
       </c>
@@ -774,7 +780,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A2),"no due date",IF(AND(TODAY()-A2&gt;=0,C2&lt;100),3,IF(AND(TODAY()-A2&lt;-7,C2&lt;100),1,IF(AND(TODAY()-A2&lt;-3,C2&lt;100),2,0))))</f>
+        <f t="shared" ref="D2:D47" ca="1" si="0">IF(ISERROR(TODAY()-A2),"no due date",IF(AND(TODAY()-A2&gt;=0,C2&lt;100),3,IF(AND(TODAY()-A2&lt;-7,C2&lt;100),1,IF(AND(TODAY()-A2&lt;-3,C2&lt;100),2,0))))</f>
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>42993</v>
       </c>
@@ -801,7 +807,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A3),"no due date",IF(AND(TODAY()-A3&gt;=0,C3&lt;100),3,IF(AND(TODAY()-A3&lt;-7,C3&lt;100),1,IF(AND(TODAY()-A3&lt;-3,C3&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -809,7 +815,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42995</v>
       </c>
@@ -820,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A4),"no due date",IF(AND(TODAY()-A4&gt;=0,C4&lt;100),3,IF(AND(TODAY()-A4&lt;-7,C4&lt;100),1,IF(AND(TODAY()-A4&lt;-3,C4&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -830,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42996</v>
       </c>
@@ -841,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A5),"no due date",IF(AND(TODAY()-A5&gt;=0,C5&lt;100),3,IF(AND(TODAY()-A5&lt;-7,C5&lt;100),1,IF(AND(TODAY()-A5&lt;-3,C5&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -851,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>42998</v>
       </c>
@@ -862,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="22">
-        <f ca="1">IF(ISERROR(TODAY()-A6),"no due date",IF(AND(TODAY()-A6&gt;=0,C6&lt;100),3,IF(AND(TODAY()-A6&lt;-7,C6&lt;100),1,IF(AND(TODAY()-A6&lt;-3,C6&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -870,7 +876,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43002</v>
       </c>
@@ -881,7 +887,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A7),"no due date",IF(AND(TODAY()-A7&gt;=0,C7&lt;100),3,IF(AND(TODAY()-A7&lt;-7,C7&lt;100),1,IF(AND(TODAY()-A7&lt;-3,C7&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -889,7 +895,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>43004</v>
       </c>
@@ -900,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A8),"no due date",IF(AND(TODAY()-A8&gt;=0,C8&lt;100),3,IF(AND(TODAY()-A8&lt;-7,C8&lt;100),1,IF(AND(TODAY()-A8&lt;-3,C8&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -910,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>43005</v>
       </c>
@@ -921,7 +927,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A9),"no due date",IF(AND(TODAY()-A9&gt;=0,C9&lt;100),3,IF(AND(TODAY()-A9&lt;-7,C9&lt;100),1,IF(AND(TODAY()-A9&lt;-3,C9&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -931,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>43006</v>
       </c>
@@ -942,7 +948,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A10),"no due date",IF(AND(TODAY()-A10&gt;=0,C10&lt;100),3,IF(AND(TODAY()-A10&lt;-7,C10&lt;100),1,IF(AND(TODAY()-A10&lt;-3,C10&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -952,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43009</v>
       </c>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A11),"no due date",IF(AND(TODAY()-A11&gt;=0,C11&lt;100),3,IF(AND(TODAY()-A11&lt;-7,C11&lt;100),1,IF(AND(TODAY()-A11&lt;-3,C11&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -971,7 +977,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>43015</v>
       </c>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A12),"no due date",IF(AND(TODAY()-A12&gt;=0,C12&lt;100),3,IF(AND(TODAY()-A12&lt;-7,C12&lt;100),1,IF(AND(TODAY()-A12&lt;-3,C12&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -990,7 +996,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>43015</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A13),"no due date",IF(AND(TODAY()-A13&gt;=0,C13&lt;100),3,IF(AND(TODAY()-A13&lt;-7,C13&lt;100),1,IF(AND(TODAY()-A13&lt;-3,C13&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1009,7 +1015,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43016</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A14),"no due date",IF(AND(TODAY()-A14&gt;=0,C14&lt;100),3,IF(AND(TODAY()-A14&lt;-7,C14&lt;100),1,IF(AND(TODAY()-A14&lt;-3,C14&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1028,7 +1034,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43016</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A15),"no due date",IF(AND(TODAY()-A15&gt;=0,C15&lt;100),3,IF(AND(TODAY()-A15&lt;-7,C15&lt;100),1,IF(AND(TODAY()-A15&lt;-3,C15&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1047,7 +1053,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43016</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A16),"no due date",IF(AND(TODAY()-A16&gt;=0,C16&lt;100),3,IF(AND(TODAY()-A16&lt;-7,C16&lt;100),1,IF(AND(TODAY()-A16&lt;-3,C16&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1066,7 +1072,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43016</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A17),"no due date",IF(AND(TODAY()-A17&gt;=0,C17&lt;100),3,IF(AND(TODAY()-A17&lt;-7,C17&lt;100),1,IF(AND(TODAY()-A17&lt;-3,C17&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1085,7 +1091,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43016</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A18),"no due date",IF(AND(TODAY()-A18&gt;=0,C18&lt;100),3,IF(AND(TODAY()-A18&lt;-7,C18&lt;100),1,IF(AND(TODAY()-A18&lt;-3,C18&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1104,7 +1110,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43016</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A19),"no due date",IF(AND(TODAY()-A19&gt;=0,C19&lt;100),3,IF(AND(TODAY()-A19&lt;-7,C19&lt;100),1,IF(AND(TODAY()-A19&lt;-3,C19&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1123,7 +1129,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43016</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A20),"no due date",IF(AND(TODAY()-A20&gt;=0,C20&lt;100),3,IF(AND(TODAY()-A20&lt;-7,C20&lt;100),1,IF(AND(TODAY()-A20&lt;-3,C20&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1142,7 +1148,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43016</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A21),"no due date",IF(AND(TODAY()-A21&gt;=0,C21&lt;100),3,IF(AND(TODAY()-A21&lt;-7,C21&lt;100),1,IF(AND(TODAY()-A21&lt;-3,C21&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1161,7 +1167,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43016</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A22),"no due date",IF(AND(TODAY()-A22&gt;=0,C22&lt;100),3,IF(AND(TODAY()-A22&lt;-7,C22&lt;100),1,IF(AND(TODAY()-A22&lt;-3,C22&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1180,7 +1186,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43016</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A23),"no due date",IF(AND(TODAY()-A23&gt;=0,C23&lt;100),3,IF(AND(TODAY()-A23&lt;-7,C23&lt;100),1,IF(AND(TODAY()-A23&lt;-3,C23&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1199,7 +1205,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43023</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A24),"no due date",IF(AND(TODAY()-A24&gt;=0,C24&lt;100),3,IF(AND(TODAY()-A24&lt;-7,C24&lt;100),1,IF(AND(TODAY()-A24&lt;-3,C24&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1218,7 +1224,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43023</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A25),"no due date",IF(AND(TODAY()-A25&gt;=0,C25&lt;100),3,IF(AND(TODAY()-A25&lt;-7,C25&lt;100),1,IF(AND(TODAY()-A25&lt;-3,C25&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1237,7 +1243,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43023</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A26),"no due date",IF(AND(TODAY()-A26&gt;=0,C26&lt;100),3,IF(AND(TODAY()-A26&lt;-7,C26&lt;100),1,IF(AND(TODAY()-A26&lt;-3,C26&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1256,7 +1262,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43023</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A27),"no due date",IF(AND(TODAY()-A27&gt;=0,C27&lt;100),3,IF(AND(TODAY()-A27&lt;-7,C27&lt;100),1,IF(AND(TODAY()-A27&lt;-3,C27&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1277,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43023</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A28),"no due date",IF(AND(TODAY()-A28&gt;=0,C28&lt;100),3,IF(AND(TODAY()-A28&lt;-7,C28&lt;100),1,IF(AND(TODAY()-A28&lt;-3,C28&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1296,7 +1302,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43030</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A29),"no due date",IF(AND(TODAY()-A29&gt;=0,C29&lt;100),3,IF(AND(TODAY()-A29&lt;-7,C29&lt;100),1,IF(AND(TODAY()-A29&lt;-3,C29&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1315,7 +1321,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43030</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A30),"no due date",IF(AND(TODAY()-A30&gt;=0,C30&lt;100),3,IF(AND(TODAY()-A30&lt;-7,C30&lt;100),1,IF(AND(TODAY()-A30&lt;-3,C30&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -1334,7 +1340,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43030</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A31),"no due date",IF(AND(TODAY()-A31&gt;=0,C31&lt;100),3,IF(AND(TODAY()-A31&lt;-7,C31&lt;100),1,IF(AND(TODAY()-A31&lt;-3,C31&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -1353,7 +1359,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43030</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A32),"no due date",IF(AND(TODAY()-A32&gt;=0,C32&lt;100),3,IF(AND(TODAY()-A32&lt;-7,C32&lt;100),1,IF(AND(TODAY()-A32&lt;-3,C32&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -1375,7 +1381,7 @@
       </c>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>43033</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="22">
-        <f ca="1">IF(ISERROR(TODAY()-A33),"no due date",IF(AND(TODAY()-A33&gt;=0,C33&lt;100),3,IF(AND(TODAY()-A33&lt;-7,C33&lt;100),1,IF(AND(TODAY()-A33&lt;-3,C33&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -1396,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43037</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A34),"no due date",IF(AND(TODAY()-A34&gt;=0,C34&lt;100),3,IF(AND(TODAY()-A34&lt;-7,C34&lt;100),1,IF(AND(TODAY()-A34&lt;-3,C34&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -1415,7 +1421,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>43039</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A35),"no due date",IF(AND(TODAY()-A35&gt;=0,C35&lt;100),3,IF(AND(TODAY()-A35&lt;-7,C35&lt;100),1,IF(AND(TODAY()-A35&lt;-3,C35&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -1436,7 +1442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>43040</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A36),"no due date",IF(AND(TODAY()-A36&gt;=0,C36&lt;100),3,IF(AND(TODAY()-A36&lt;-7,C36&lt;100),1,IF(AND(TODAY()-A36&lt;-3,C36&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -1457,7 +1463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>43040</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A37),"no due date",IF(AND(TODAY()-A37&gt;=0,C37&lt;100),3,IF(AND(TODAY()-A37&lt;-7,C37&lt;100),1,IF(AND(TODAY()-A37&lt;-3,C37&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -1476,7 +1482,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>43041</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="23">
-        <f ca="1">IF(ISERROR(TODAY()-A38),"no due date",IF(AND(TODAY()-A38&gt;=0,C38&lt;100),3,IF(AND(TODAY()-A38&lt;-7,C38&lt;100),1,IF(AND(TODAY()-A38&lt;-3,C38&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -1497,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43044</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A39),"no due date",IF(AND(TODAY()-A39&gt;=0,C39&lt;100),3,IF(AND(TODAY()-A39&lt;-7,C39&lt;100),1,IF(AND(TODAY()-A39&lt;-3,C39&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -1516,7 +1522,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43051</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A40),"no due date",IF(AND(TODAY()-A40&gt;=0,C40&lt;100),3,IF(AND(TODAY()-A40&lt;-7,C40&lt;100),1,IF(AND(TODAY()-A40&lt;-3,C40&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -1535,7 +1541,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>43054</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A41),"no due date",IF(AND(TODAY()-A41&gt;=0,C41&lt;100),3,IF(AND(TODAY()-A41&lt;-7,C41&lt;100),1,IF(AND(TODAY()-A41&lt;-3,C41&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -1554,7 +1560,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43058</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A42),"no due date",IF(AND(TODAY()-A42&gt;=0,C42&lt;100),3,IF(AND(TODAY()-A42&lt;-7,C42&lt;100),1,IF(AND(TODAY()-A42&lt;-3,C42&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -1573,7 +1579,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43065</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A43),"no due date",IF(AND(TODAY()-A43&gt;=0,C43&lt;100),3,IF(AND(TODAY()-A43&lt;-7,C43&lt;100),1,IF(AND(TODAY()-A43&lt;-3,C43&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -1592,7 +1598,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43070</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="21">
-        <f ca="1">IF(ISERROR(TODAY()-A44),"no due date",IF(AND(TODAY()-A44&gt;=0,C44&lt;100),3,IF(AND(TODAY()-A44&lt;-7,C44&lt;100),1,IF(AND(TODAY()-A44&lt;-3,C44&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -1611,7 +1617,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43072</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A45),"no due date",IF(AND(TODAY()-A45&gt;=0,C45&lt;100),3,IF(AND(TODAY()-A45&lt;-7,C45&lt;100),1,IF(AND(TODAY()-A45&lt;-3,C45&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -1632,7 +1638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43079</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="20">
-        <f ca="1">IF(ISERROR(TODAY()-A46),"no due date",IF(AND(TODAY()-A46&gt;=0,C46&lt;100),3,IF(AND(TODAY()-A46&lt;-7,C46&lt;100),1,IF(AND(TODAY()-A46&lt;-3,C46&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -1653,7 +1659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>43084</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="22">
-        <f ca="1">IF(ISERROR(TODAY()-A47),"no due date",IF(AND(TODAY()-A47&gt;=0,C47&lt;100),3,IF(AND(TODAY()-A47&lt;-7,C47&lt;100),1,IF(AND(TODAY()-A47&lt;-3,C47&lt;100),2,0))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
